--- a/resources/generated_datasets/workflow_dataset/dataset_description_18012023.xlsx
+++ b/resources/generated_datasets/workflow_dataset/dataset_description_18012023.xlsx
@@ -312,35 +312,35 @@
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-2666103748511092667" xfId="1" hidden="0"/>
-    <cellStyle name="4818403177216985034" xfId="2" hidden="0"/>
-    <cellStyle name="8594613171988018296" xfId="3" hidden="0"/>
-    <cellStyle name="-2820515764439973197" xfId="4" hidden="0"/>
-    <cellStyle name="5946890968431636367" xfId="5" hidden="0"/>
-    <cellStyle name="9048064413955702266" xfId="6" hidden="0"/>
-    <cellStyle name="-3625470833563191399" xfId="7" hidden="0"/>
-    <cellStyle name="-7042131043751415109" xfId="8" hidden="0"/>
-    <cellStyle name="-6053500061842798492" xfId="9" hidden="0"/>
-    <cellStyle name="-7514306481663332039" xfId="10" hidden="0"/>
-    <cellStyle name="3842362765978457846" xfId="11" hidden="0"/>
-    <cellStyle name="-3038681280746360295" xfId="12" hidden="0"/>
-    <cellStyle name="8895890586786246456" xfId="13" hidden="0"/>
-    <cellStyle name="5713868464874649075" xfId="14" hidden="0"/>
-    <cellStyle name="1669494155913978707" xfId="15" hidden="0"/>
-    <cellStyle name="1609975644394273310" xfId="16" hidden="0"/>
-    <cellStyle name="8733853001660837854" xfId="17" hidden="0"/>
-    <cellStyle name="4207264429182644479" xfId="18" hidden="0"/>
-    <cellStyle name="-7493989389475121324" xfId="19" hidden="0"/>
-    <cellStyle name="7800456187506123348" xfId="20" hidden="0"/>
-    <cellStyle name="922894169053025731" xfId="21" hidden="0"/>
-    <cellStyle name="5688328870170897714" xfId="22" hidden="0"/>
-    <cellStyle name="-6985575079715411815" xfId="23" hidden="0"/>
-    <cellStyle name="-5312663980485021284" xfId="24" hidden="0"/>
-    <cellStyle name="3911747496810627346" xfId="25" hidden="0"/>
-    <cellStyle name="-487391653079071021" xfId="26" hidden="0"/>
-    <cellStyle name="-8906777475561110200" xfId="27" hidden="0"/>
-    <cellStyle name="9140244663729665623" xfId="28" hidden="0"/>
-    <cellStyle name="4858533526322588931" xfId="29" hidden="0"/>
+    <cellStyle name="-1823660892214233028" xfId="1" hidden="0"/>
+    <cellStyle name="-1489614613447547998" xfId="2" hidden="0"/>
+    <cellStyle name="-544778452270046197" xfId="3" hidden="0"/>
+    <cellStyle name="-4614652340639761637" xfId="4" hidden="0"/>
+    <cellStyle name="-1676725719235867733" xfId="5" hidden="0"/>
+    <cellStyle name="2587989842793274595" xfId="6" hidden="0"/>
+    <cellStyle name="-5841060909170201333" xfId="7" hidden="0"/>
+    <cellStyle name="8185440065800958798" xfId="8" hidden="0"/>
+    <cellStyle name="5320566524692810782" xfId="9" hidden="0"/>
+    <cellStyle name="1896662207354081220" xfId="10" hidden="0"/>
+    <cellStyle name="2928559879528572435" xfId="11" hidden="0"/>
+    <cellStyle name="7734526174114182106" xfId="12" hidden="0"/>
+    <cellStyle name="3075354526278853788" xfId="13" hidden="0"/>
+    <cellStyle name="-2365958160598158151" xfId="14" hidden="0"/>
+    <cellStyle name="-8328728473029169974" xfId="15" hidden="0"/>
+    <cellStyle name="-94439398566088441" xfId="16" hidden="0"/>
+    <cellStyle name="2474917010702814608" xfId="17" hidden="0"/>
+    <cellStyle name="2793659534457493184" xfId="18" hidden="0"/>
+    <cellStyle name="5156977059539523939" xfId="19" hidden="0"/>
+    <cellStyle name="-8546273856110566589" xfId="20" hidden="0"/>
+    <cellStyle name="2875429787045021615" xfId="21" hidden="0"/>
+    <cellStyle name="3056670794511690776" xfId="22" hidden="0"/>
+    <cellStyle name="-634693658232050662" xfId="23" hidden="0"/>
+    <cellStyle name="-8294193795436093214" xfId="24" hidden="0"/>
+    <cellStyle name="-4983811380639136418" xfId="25" hidden="0"/>
+    <cellStyle name="1429083721339270719" xfId="26" hidden="0"/>
+    <cellStyle name="-4832493197705926612" xfId="27" hidden="0"/>
+    <cellStyle name="6518371392241857378" xfId="28" hidden="0"/>
+    <cellStyle name="-4939528959544977827" xfId="29" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
